--- a/data/trans_orig/Q03B_FES-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Dificultad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.442141927396638</v>
+        <v>1.438373360031215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.444437646293393</v>
+        <v>1.443679290411679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.652290346722346</v>
+        <v>1.659563126388737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.245668598726432</v>
+        <v>3.267371069022335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.487806820892351</v>
+        <v>3.462768479834223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.688456271748275</v>
+        <v>3.67565479391241</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.594508562544859</v>
+        <v>2.58485751551365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.512732020107711</v>
+        <v>2.517384276000985</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.771783647056343</v>
+        <v>2.763594377942834</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.841040725510481</v>
+        <v>1.809243481645745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.678386234592433</v>
+        <v>1.659844231963387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.877124003815916</v>
+        <v>1.87691944523854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.556323766126057</v>
+        <v>3.57682189552591</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.759264700829466</v>
+        <v>3.75910167419688</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.93802961441435</v>
+        <v>3.950032458944313</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.86346088075055</v>
+        <v>2.858146278397065</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.719098199348581</v>
+        <v>2.719601169379453</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.962585091484471</v>
+        <v>2.962539388179943</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.27452761467553</v>
+        <v>1.286976054869042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.338885417729735</v>
+        <v>1.321919925324417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.608508865790803</v>
+        <v>1.596782325867764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.526674779054172</v>
+        <v>3.531031176212775</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.217317350245754</v>
+        <v>3.211370855589696</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.172077422638006</v>
+        <v>3.16468505954923</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.406146606186808</v>
+        <v>2.420395053053237</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.350805168549536</v>
+        <v>2.341204678429538</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.470677691233004</v>
+        <v>2.466680796685248</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.513375322502474</v>
+        <v>1.51234039448611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.530254616339212</v>
+        <v>1.521408701145514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.795843394483118</v>
+        <v>1.796160630669407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.823787473125224</v>
+        <v>3.84108836557062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.496859244523125</v>
+        <v>3.488491308126879</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.425347939474813</v>
+        <v>3.419162915924279</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.617615299372764</v>
+        <v>2.619928131938289</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.544714473070919</v>
+        <v>2.543534103599047</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.639170977170068</v>
+        <v>2.652198343447606</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.184894231518014</v>
+        <v>1.181573622343603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.305826758593406</v>
+        <v>1.3047224540302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.566982386105122</v>
+        <v>1.564447853652348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.428338706304833</v>
+        <v>3.411500940444053</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.953169101053255</v>
+        <v>2.958494680785978</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.944125022236308</v>
+        <v>2.947534172322681</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.277958177815587</v>
+        <v>2.263181978029383</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.15914866235182</v>
+        <v>2.145955191629925</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.281387233354926</v>
+        <v>2.266316318005007</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.408431299737295</v>
+        <v>1.403305411307682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.50880449604469</v>
+        <v>1.513805206379033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.765670085587919</v>
+        <v>1.767464094701326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.773725981731414</v>
+        <v>3.769343731225004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.244222508469912</v>
+        <v>3.238944569640471</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.266740735961512</v>
+        <v>3.25368490075941</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.500595409381734</v>
+        <v>2.495215996932824</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.348788998416022</v>
+        <v>2.334628598151038</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.464301279792957</v>
+        <v>2.461383711766153</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.223615750635952</v>
+        <v>1.214970495327183</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.441463381112998</v>
+        <v>1.426911971680044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.540908756500054</v>
+        <v>1.529157470500723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.932158287391439</v>
+        <v>2.930905739647541</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.065444690886688</v>
+        <v>3.067974078983621</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.742868129425145</v>
+        <v>2.744233572645108</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.01863336012466</v>
+        <v>2.020934264299231</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.255885234752595</v>
+        <v>2.2445996838265</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.172633045719819</v>
+        <v>2.165411162618714</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.617059303214865</v>
+        <v>1.610458596785807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.756639783788658</v>
+        <v>1.749344006813009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.79974646162442</v>
+        <v>1.801328410684434</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.442812715968838</v>
+        <v>3.450181760112983</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.518759970355694</v>
+        <v>3.506811427705208</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.152814198772612</v>
+        <v>3.151691708936441</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.360044720923734</v>
+        <v>2.351110090976297</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.5550745163418</v>
+        <v>2.532643440410612</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.431665946165951</v>
+        <v>2.422982297722649</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.322872007130558</v>
+        <v>1.326845645958393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.427486584145502</v>
+        <v>1.425791202231735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.652720247500386</v>
+        <v>1.654480870586322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.443963530006527</v>
+        <v>3.451128322161181</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.283084585550562</v>
+        <v>3.280428174655859</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.317255531268693</v>
+        <v>3.318760708831199</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.420584615365734</v>
+        <v>2.420760072075888</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.389110080158143</v>
+        <v>2.390121131671307</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.532242511265001</v>
+        <v>2.529779085087922</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.462830055145417</v>
+        <v>1.471316603661263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.536555978928332</v>
+        <v>1.543751916341293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.759131562662194</v>
+        <v>1.766314104649176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.6155953662531</v>
+        <v>3.625306629962417</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.438417869654673</v>
+        <v>3.43953752419835</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.458428553874984</v>
+        <v>3.463303992095493</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.537363898216937</v>
+        <v>2.537491573835605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.495182974017844</v>
+        <v>2.497467846818708</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.628693007937798</v>
+        <v>2.630910280834277</v>
       </c>
     </row>
     <row r="19">
